--- a/file/template/gis.xlsx
+++ b/file/template/gis.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>药材名称</t>
   </si>
@@ -123,18 +123,6 @@
   </si>
   <si>
     <t>无</t>
-  </si>
-  <si>
-    <t>HB00002</t>
-  </si>
-  <si>
-    <t>HBY00002</t>
-  </si>
-  <si>
-    <t>HB00003</t>
-  </si>
-  <si>
-    <t>HBY00003</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1149,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1274,154 +1262,49 @@
       </c>
     </row>
     <row r="3" ht="14.4" spans="1:16">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" ht="14.4" spans="1:16">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
     <row r="5" ht="14.4" spans="1:16">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
     </row>
     <row r="6" ht="14.4" spans="1:16">
       <c r="D6" s="5"/>
